--- a/InputData/dist-heat/HDL/Heat Distribution Losses.xlsx
+++ b/InputData/dist-heat/HDL/Heat Distribution Losses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\dist-heat\HDL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\dist-heat\HDL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2939486-7725-46EC-BB84-24964CC2395B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BA8B74-1F67-4F24-8ACE-87781B0008C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="2715" windowWidth="19470" windowHeight="20340" xr2:uid="{7FE0438B-EB0E-443A-8B0B-C67805A5FF58}"/>
+    <workbookView xWindow="8700" yWindow="690" windowWidth="18765" windowHeight="17175" activeTab="1" xr2:uid="{7FE0438B-EB0E-443A-8B0B-C67805A5FF58}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -201,8 +201,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -523,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBE8349-D73E-42FD-BD61-5E87CB115BAE}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -695,7 +694,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="A37" s="7">
         <v>0.15</v>
       </c>
     </row>
@@ -721,131 +720,136 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="1" max="2" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="6">
+        <v>2019</v>
+      </c>
+      <c r="C1" s="8">
         <v>2020</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>2021</v>
       </c>
-      <c r="D1" s="9">
+      <c r="E1" s="8">
         <v>2022</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>2023</v>
       </c>
-      <c r="F1" s="9">
+      <c r="G1" s="8">
         <v>2024</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>2025</v>
       </c>
-      <c r="H1" s="9">
+      <c r="I1" s="8">
         <v>2026</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>2027</v>
       </c>
-      <c r="J1" s="9">
+      <c r="K1" s="8">
         <v>2028</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>2029</v>
       </c>
-      <c r="L1" s="9">
+      <c r="M1" s="8">
         <v>2030</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>2031</v>
       </c>
-      <c r="N1" s="9">
+      <c r="O1" s="8">
         <v>2032</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>2033</v>
       </c>
-      <c r="P1" s="9">
+      <c r="Q1" s="8">
         <v>2034</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>2035</v>
       </c>
-      <c r="R1" s="9">
+      <c r="S1" s="8">
         <v>2036</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>2037</v>
       </c>
-      <c r="T1" s="9">
+      <c r="U1" s="8">
         <v>2038</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>2039</v>
       </c>
-      <c r="V1" s="9">
+      <c r="W1" s="8">
         <v>2040</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>2041</v>
       </c>
-      <c r="X1" s="9">
+      <c r="Y1" s="8">
         <v>2042</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>2043</v>
       </c>
-      <c r="Z1" s="9">
+      <c r="AA1" s="8">
         <v>2044</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>2045</v>
       </c>
-      <c r="AB1" s="9">
+      <c r="AC1" s="8">
         <v>2046</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>2047</v>
       </c>
-      <c r="AD1" s="9">
+      <c r="AE1" s="8">
         <v>2048</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>2049</v>
       </c>
-      <c r="AF1" s="9">
+      <c r="AG1" s="8">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2">
+        <f>C2</f>
+        <v>0.15</v>
+      </c>
+      <c r="C2">
         <f>About!A37</f>
         <v>0.15</v>
       </c>
-      <c r="C2">
-        <f>$B2</f>
-        <v>0.15</v>
-      </c>
       <c r="D2">
-        <f t="shared" ref="D2:AF2" si="0">$B2</f>
+        <f>$C2</f>
         <v>0.15</v>
       </c>
       <c r="E2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E2:AG2" si="0">$C2</f>
         <v>0.15</v>
       </c>
       <c r="F2">
@@ -953,6 +957,10 @@
         <v>0.15</v>
       </c>
       <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
